--- a/mathTransformed/HMPSTT_(2019-10-10)_38_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-10-10)_38_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Sangameshwar Comp. Jr College (H S) AmingadHunagund</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>S G High School GolageriSindagi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S Avathi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -562,7 +582,8 @@
           <t>CARMEL KRUPA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Sacred Heart High School B H Road Shimoga</t>
         </is>
@@ -591,6 +612,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Hebsur Secondary School HebsurHubli</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -618,6 +644,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S BommalapuraKoppa</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Chikamagalur</t>
         </is>
       </c>
@@ -645,6 +676,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S Janwada</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -672,6 +708,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>S J S High School BhairidevarakoppaHubballi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -699,6 +740,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Anjuman High School AlmelSindgi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Vijapur</t>
         </is>
       </c>
@@ -726,6 +772,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S AngadiMudigere</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Chikmagalur</t>
         </is>
       </c>
@@ -753,6 +804,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G G H S HirisaveChannarayapatna</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -780,6 +836,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Govt. High School AskiSindagi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -807,6 +868,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Sangameshwar High SchoolKudalsangamHungund</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -834,6 +900,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>H M S M Urdu High School</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -861,6 +932,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Sri Adichunchanagiri P U CollegeChannarayapatna</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -888,6 +964,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>N F H S Mangalpet</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -913,7 +994,8 @@
           <t>NIKHAT NAJAM FATIMA</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>G P U C Boys H S Bidar</t>
         </is>
@@ -942,6 +1024,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S MattihalliHarapanahalli</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -969,6 +1056,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>S S P U College (H S) KolharBasavana Bagewadi</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -996,6 +1088,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Sri Amrutha Lingeshwara High School M ShivaraChannarayapatna</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1023,6 +1120,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S ManchanabeleMagadi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1050,6 +1152,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G J C KalasaMudigere</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -1077,6 +1184,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Gangamma S MargolG H S ShahabadChittapur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Kaliburgi</t>
         </is>
       </c>
@@ -1104,6 +1216,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Govt. P B P U College for boysJamkhandi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1131,6 +1248,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S MalliJewargi</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1158,6 +1280,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>S V M High School IlkalHunagund</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1185,6 +1312,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G H S HerurKoppa</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -1212,6 +1344,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G G J C (High School Section) Mudigere</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Chikkamagalur</t>
         </is>
       </c>
@@ -1239,6 +1376,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Govt. J C Hagare Belur</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1266,6 +1408,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>T M A E S High SchoolNeelagundHarapanahalli</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1293,6 +1440,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Govt. P B P U CollegeJamkhandi</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1320,6 +1472,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>S B High School KalakeriSindagi</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1347,6 +1504,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Sri Anjaneya High School NagenahalliKadur</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Chikkamagalur</t>
         </is>
       </c>
@@ -1374,6 +1536,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Warriors High SchoolChallakere</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1401,6 +1568,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Govt. High SchoolKaknalBhalki</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1428,6 +1600,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>G H S BelagihallyChannarayapatna</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1455,6 +1632,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G H S BachenahattiMagadi</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1481,6 +1663,11 @@
         </is>
       </c>
       <c r="F40" t="inlineStr">
+        <is>
+          <t>G G H S And CompositJunior CollegeJamkhandi</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>Bagalkot</t>
         </is>

--- a/mathTransformed/HMPSTT_(2019-10-10)_38_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-10-10)_38_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,6 @@
           <t>CARMEL KRUPA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>Sacred Heart High School B H Road Shimoga</t>
@@ -841,7 +840,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -994,7 +993,6 @@
           <t>NIKHAT NAJAM FATIMA</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>G P U C Boys H S Bidar</t>
@@ -1061,7 +1059,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1155,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1251,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1315,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1347,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chikkamagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1411,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1475,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1507,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Chikkamagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2019-10-10)_38_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-10-10)_38_4.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sacred Heart High School B H Road Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chikamagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Vijapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chikmagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>G P U C Boys H S Bidar</t>
+          <t>Bidar</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Kaliburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
